--- a/doc/phase2/实验数据.xlsx
+++ b/doc/phase2/实验数据.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9900" activeTab="3"/>
+    <workbookView windowWidth="24180" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="k=2 n=50" sheetId="1" r:id="rId1"/>
     <sheet name="k=4 n=50" sheetId="2" r:id="rId2"/>
     <sheet name="k=6 n=50" sheetId="3" r:id="rId3"/>
     <sheet name="k=8 n=50" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>k=2</t>
   </si>
@@ -35,6 +36,9 @@
   </si>
   <si>
     <t>时间（微秒）</t>
+  </si>
+  <si>
+    <t>结果集与预处理结果之差</t>
   </si>
   <si>
     <t>anti_2</t>
@@ -78,16 +82,19 @@
   <si>
     <t>k=6</t>
   </si>
+  <si>
+    <t>k</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,22 +106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,68 +119,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,7 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -220,7 +152,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +218,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,25 +258,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,25 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,121 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +449,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,15 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -493,17 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,15 +541,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -550,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,18 +1051,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="17.5583333333333" customWidth="1"/>
     <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1066,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1079,10 +1087,13 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -1096,10 +1107,14 @@
       <c r="E3">
         <v>1820</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f>D3-C3</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1113,10 +1128,14 @@
       <c r="E4">
         <v>1097</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f t="shared" ref="F4:F14" si="0">D4-C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1130,10 +1149,14 @@
       <c r="E5">
         <v>1223</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1147,10 +1170,14 @@
       <c r="E6">
         <v>1134</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>47</v>
@@ -1164,10 +1191,14 @@
       <c r="E7">
         <v>25129</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>33</v>
@@ -1181,10 +1212,14 @@
       <c r="E8">
         <v>5801</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -1198,10 +1233,14 @@
       <c r="E9">
         <v>2297</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>47</v>
@@ -1215,10 +1254,14 @@
       <c r="E10">
         <v>24073</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>39</v>
@@ -1232,10 +1275,14 @@
       <c r="E11">
         <v>8956</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -1249,10 +1296,14 @@
       <c r="E12">
         <v>3008</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -1266,10 +1317,14 @@
       <c r="E13">
         <v>1820</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1282,6 +1337,10 @@
       </c>
       <c r="E14">
         <v>1536</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1294,29 +1353,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B3" sqref="B3:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="11.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="12.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="20.225" customWidth="1"/>
+    <col min="4" max="4" width="11.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.225" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1329,10 +1389,13 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1346,10 +1409,14 @@
       <c r="E3">
         <v>1744</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f>D3-C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1363,10 +1430,14 @@
       <c r="E4">
         <v>1142</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f t="shared" ref="F4:F14" si="0">D4-C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1380,10 +1451,14 @@
       <c r="E5">
         <v>1184</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1397,10 +1472,14 @@
       <c r="E6">
         <v>1131</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>46</v>
@@ -1414,10 +1493,14 @@
       <c r="E7">
         <v>617751</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>22</v>
@@ -1431,10 +1514,14 @@
       <c r="E8">
         <v>13343</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>9995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1448,10 +1535,14 @@
       <c r="E9">
         <v>2164</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1465,10 +1556,14 @@
       <c r="E10">
         <v>1605</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -1482,10 +1577,14 @@
       <c r="E11">
         <v>53553</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>34230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>32</v>
@@ -1499,10 +1598,14 @@
       <c r="E12">
         <v>52407</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>34230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -1516,10 +1619,14 @@
       <c r="E13">
         <v>1922</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1532,6 +1639,10 @@
       </c>
       <c r="E14">
         <v>1703</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1544,29 +1655,30 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="22.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="22.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1579,10 +1691,13 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1596,10 +1711,14 @@
       <c r="E3">
         <v>1699</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f>D3-C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1613,10 +1732,14 @@
       <c r="E4">
         <v>1654</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f t="shared" ref="F4:F14" si="0">D4-C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1630,10 +1753,14 @@
       <c r="E5">
         <v>1318</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1647,10 +1774,14 @@
       <c r="E6">
         <v>1368</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>44</v>
@@ -1664,10 +1795,14 @@
       <c r="E7">
         <v>48112515</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -1681,10 +1816,14 @@
       <c r="E8">
         <v>11362</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>19673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1698,10 +1837,14 @@
       <c r="E9">
         <v>1887</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1715,10 +1858,14 @@
       <c r="E10">
         <v>1332</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1732,10 +1879,14 @@
       <c r="E11">
         <v>132307</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1183131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1749,10 +1900,14 @@
       <c r="E12">
         <v>2562</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>202608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1766,10 +1921,14 @@
       <c r="E13">
         <v>1694</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1782,6 +1941,10 @@
       </c>
       <c r="E14">
         <v>1335</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1794,29 +1957,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="18.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="22.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="11.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="18.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="22.225" customWidth="1"/>
+    <col min="4" max="4" width="11.775" customWidth="1"/>
     <col min="5" max="5" width="14.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1829,10 +1993,13 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1846,10 +2013,14 @@
       <c r="E3">
         <v>1682</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f>D3-C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1863,10 +2034,14 @@
       <c r="E4">
         <v>1210</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f t="shared" ref="F4:F14" si="0">D4-C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1880,10 +2055,14 @@
       <c r="E5">
         <v>1290</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1897,10 +2076,14 @@
       <c r="E6">
         <v>1285</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>44</v>
@@ -1914,10 +2097,14 @@
       <c r="E7">
         <v>28096736</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -1931,10 +2118,14 @@
       <c r="E8">
         <v>4502</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1948,10 +2139,14 @@
       <c r="E9">
         <v>2009</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1965,10 +2160,14 @@
       <c r="E10">
         <v>1305</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>25</v>
@@ -1982,10 +2181,14 @@
       <c r="E11">
         <v>199233</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>7868621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -1999,10 +2202,14 @@
       <c r="E12">
         <v>2131</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2016,10 +2223,14 @@
       <c r="E13">
         <v>1745</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2032,6 +2243,117 @@
       </c>
       <c r="E14">
         <v>1281</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>155116</v>
+      </c>
+      <c r="D3">
+        <v>163274</v>
+      </c>
+      <c r="E3">
+        <v>216656</v>
+      </c>
+      <c r="F3">
+        <f>D3-C3</f>
+        <v>8158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>1682533</v>
+      </c>
+      <c r="D4">
+        <v>1745573</v>
+      </c>
+      <c r="E4">
+        <v>1178148</v>
+      </c>
+      <c r="F4">
+        <f>D4-C4</f>
+        <v>63040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>13565916</v>
+      </c>
+      <c r="D5">
+        <v>14573615</v>
+      </c>
+      <c r="E5">
+        <v>4288352</v>
+      </c>
+      <c r="F5">
+        <f>D5-C5</f>
+        <v>1007699</v>
       </c>
     </row>
   </sheetData>
